--- a/data/trans_bre/P17G_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02307546757226761</v>
+        <v>0.1432288322312624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.309855037004692</v>
+        <v>-1.468118489941994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1190587077069395</v>
+        <v>-0.09877899945359923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.388131387243681</v>
+        <v>-0.3896386847532922</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5087781600173454</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-0.9069933070338236</v>
-      </c>
+        <v>-0.4477882178688986</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.2972156668473669</v>
+        <v>-0.2662081811444666</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6402180028183053</v>
+        <v>-0.6951832528934331</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +690,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.913901137780305</v>
+        <v>1.974098582026715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4898866569421957</v>
+        <v>0.3487199736471731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.458963771276485</v>
+        <v>2.501294561577391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7151539802399967</v>
+        <v>0.7059661989774005</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
-        <v>2.021079039263017</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>7.082280048712861</v>
+        <v>6.900573929110866</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10.24141720127817</v>
+        <v>9.769104461171278</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +731,7 @@
         <v>-0.9922283397575575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.4999846729402815</v>
+        <v>-0.4999846729402818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8276143863333287</v>
@@ -747,7 +743,7 @@
         <v>-0.4428509730031133</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2274523507822188</v>
+        <v>-0.2274523507822189</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +754,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1672810560864586</v>
+        <v>-0.1731679077243412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8786961365172921</v>
+        <v>-1.058725283294355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.338519574004252</v>
+        <v>-2.310795692056821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.694830344853839</v>
+        <v>-1.793799730506653</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1996293762426376</v>
+        <v>-0.1379220916481353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5143278614518048</v>
+        <v>-0.5841109531141812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7428589201362972</v>
+        <v>-0.7516750830889644</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5706110313519224</v>
+        <v>-0.581372920975382</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +786,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.190356802946197</v>
+        <v>2.38485966813368</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.346422524679358</v>
+        <v>1.227557736495575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1349200013844491</v>
+        <v>0.1153724141409565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7271428681143627</v>
+        <v>0.6295746055297942</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.51103366100761</v>
+        <v>3.588139269601838</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.10355798086023</v>
+        <v>1.766117522789298</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1461545871450336</v>
+        <v>0.1134863265056572</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5165898497700582</v>
+        <v>0.4529827753716011</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +854,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.005152848626428</v>
+        <v>-2.081414634675737</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.971090668846737</v>
+        <v>-1.841762633430042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7444814904861332</v>
+        <v>-0.6571909930413398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.364606861641576</v>
+        <v>-1.165800105211933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6311305834322571</v>
+        <v>-0.6318921795199636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8220747448015663</v>
+        <v>-0.8145828671138318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4681628447370653</v>
+        <v>-0.4480195576022662</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4332371330168538</v>
+        <v>-0.3667728707686911</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +886,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.127014091962316</v>
+        <v>1.218083880392052</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5594975312249906</v>
+        <v>0.5570124380182976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.836249776561714</v>
+        <v>1.842507051111022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.928212715673932</v>
+        <v>1.869293599249881</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6924111626763616</v>
+        <v>0.8769731571671394</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9128646578558666</v>
+        <v>0.9205424551534604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.400240533428915</v>
+        <v>3.274702618418112</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.502736010156821</v>
+        <v>1.407650639092484</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +931,7 @@
         <v>-0.1038223494674421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.543059256137118</v>
+        <v>1.543059256137117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3152488913960524</v>
@@ -947,7 +943,7 @@
         <v>-0.0388036833248185</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.7150104179788762</v>
+        <v>0.7150104179788759</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.652666763986454</v>
+        <v>-1.679390176751866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8168803853218929</v>
+        <v>-0.8840411288979545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.543596801353311</v>
+        <v>-1.683990416701357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1123990363782989</v>
+        <v>0.2754722335596393</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6712712666325706</v>
+        <v>-0.6648287197456212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4758826652625333</v>
+        <v>-0.4668151510118727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4530872834350562</v>
+        <v>-0.4986583148235805</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02345417868436833</v>
+        <v>0.05228206933174055</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5022959587405489</v>
+        <v>0.4545432907750124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.408569134253357</v>
+        <v>1.468357233276249</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.355575116349953</v>
+        <v>1.403865791459165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.903891260719963</v>
+        <v>2.982701188755531</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4917211732619428</v>
+        <v>0.4616806926322861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.452764766970784</v>
+        <v>1.469210606872587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7196519700963232</v>
+        <v>0.7434873230900955</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.010478696526449</v>
+        <v>2.001943169685672</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1031,7 @@
         <v>0.0369061901695434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4734684298905386</v>
+        <v>0.4734684298905389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1490827385849957</v>
@@ -1047,7 +1043,7 @@
         <v>0.02028607909593055</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2610566689032258</v>
+        <v>0.261056668903226</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4646357294095455</v>
+        <v>-0.3848203739732481</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6019281386795089</v>
+        <v>-0.5618628698213886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6808452095455033</v>
+        <v>-0.6429397907601114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2203854984861064</v>
+        <v>-0.1984742052035822</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2713260475983441</v>
+        <v>-0.2252154699396737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3829794393082378</v>
+        <v>-0.3680474390655257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3085905359040731</v>
+        <v>-0.3014772734567676</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1038532542457892</v>
+        <v>-0.08782055508526376</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8431822729316172</v>
+        <v>0.8500888539953249</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5087160294370076</v>
+        <v>0.5530740453791868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7407258673577215</v>
+        <v>0.6693208928799785</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.062723178576275</v>
+        <v>1.142040874000611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7403889762558946</v>
+        <v>0.7741163243168638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5138286038318826</v>
+        <v>0.5917937482197816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5331380442872095</v>
+        <v>0.4485123377964519</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7444710388670878</v>
+        <v>0.7955137558248253</v>
       </c>
     </row>
     <row r="19">
